--- a/evaluation_machines.xlsx
+++ b/evaluation_machines.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
-  <si>
-    <t>method</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>job_num</t>
   </si>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>makespan_16</t>
-  </si>
-  <si>
-    <t>RL</t>
   </si>
 </sst>
 </file>
@@ -410,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,350 +444,215 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20</v>
       </c>
       <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>-101.48</v>
+      </c>
+      <c r="D2">
+        <v>0.75</v>
+      </c>
+      <c r="E2">
+        <v>452.3</v>
+      </c>
+      <c r="F2">
+        <v>-15.98</v>
+      </c>
+      <c r="G2">
+        <v>0.62</v>
+      </c>
+      <c r="H2">
+        <v>363.9</v>
+      </c>
+      <c r="I2">
+        <v>13.07</v>
+      </c>
+      <c r="J2">
+        <v>0.52</v>
+      </c>
+      <c r="K2">
+        <v>326.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>-72.5</v>
+      </c>
+      <c r="D3">
+        <v>0.71</v>
+      </c>
+      <c r="E3">
+        <v>487.9</v>
+      </c>
+      <c r="F3">
+        <v>2.58</v>
+      </c>
+      <c r="G3">
+        <v>0.55</v>
+      </c>
+      <c r="H3">
+        <v>431</v>
+      </c>
+      <c r="I3">
+        <v>19.01</v>
+      </c>
+      <c r="J3">
+        <v>0.43</v>
+      </c>
+      <c r="K3">
+        <v>423.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>-22.75</v>
+      </c>
+      <c r="D4">
+        <v>0.63</v>
+      </c>
+      <c r="E4">
+        <v>480.7</v>
+      </c>
+      <c r="F4">
+        <v>16.74</v>
+      </c>
+      <c r="G4">
+        <v>0.45</v>
+      </c>
+      <c r="H4">
+        <v>458.7</v>
+      </c>
+      <c r="I4">
+        <v>21.3</v>
+      </c>
+      <c r="J4">
+        <v>0.34</v>
+      </c>
+      <c r="K4">
+        <v>458.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
         <v>50</v>
       </c>
-      <c r="D2">
-        <v>-117.504</v>
-      </c>
-      <c r="E2">
-        <v>0.8090000052001491</v>
-      </c>
-      <c r="F2">
-        <v>442.8</v>
-      </c>
-      <c r="G2">
-        <v>-20.136</v>
-      </c>
-      <c r="H2">
-        <v>0.7136499235064352</v>
-      </c>
-      <c r="I2">
-        <v>336.4</v>
-      </c>
-      <c r="J2">
-        <v>12.892</v>
-      </c>
-      <c r="K2">
-        <v>0.571413907418028</v>
-      </c>
-      <c r="L2">
-        <v>317.7</v>
+      <c r="C5">
+        <v>-175.4</v>
+      </c>
+      <c r="D5">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E5">
+        <v>551.5</v>
+      </c>
+      <c r="F5">
+        <v>-61.92</v>
+      </c>
+      <c r="G5">
+        <v>0.76</v>
+      </c>
+      <c r="H5">
+        <v>394.4</v>
+      </c>
+      <c r="I5">
+        <v>-12.18</v>
+      </c>
+      <c r="J5">
+        <v>0.65</v>
+      </c>
+      <c r="K5">
+        <v>347.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="D3">
-        <v>-58.91766666666666</v>
-      </c>
-      <c r="E3">
-        <v>0.6864045414830595</v>
-      </c>
-      <c r="F3">
-        <v>480</v>
-      </c>
-      <c r="G3">
-        <v>8.077833333333334</v>
-      </c>
-      <c r="H3">
-        <v>0.5066466178259519</v>
-      </c>
-      <c r="I3">
-        <v>431.8</v>
-      </c>
-      <c r="J3">
-        <v>19.04536956521739</v>
-      </c>
-      <c r="K3">
-        <v>0.3969794010859597</v>
-      </c>
-      <c r="L3">
-        <v>417</v>
+      <c r="C6">
+        <v>-156.92</v>
+      </c>
+      <c r="D6">
+        <v>0.78</v>
+      </c>
+      <c r="E6">
+        <v>641.1</v>
+      </c>
+      <c r="F6">
+        <v>-31.43</v>
+      </c>
+      <c r="G6">
+        <v>0.61</v>
+      </c>
+      <c r="H6">
+        <v>549.1</v>
+      </c>
+      <c r="I6">
+        <v>11.21</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>511.9</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
         <v>200</v>
       </c>
-      <c r="D4">
-        <v>-13.59658523119393</v>
-      </c>
-      <c r="E4">
-        <v>0.5958187995546064</v>
-      </c>
-      <c r="F4">
-        <v>526.5</v>
-      </c>
-      <c r="G4">
-        <v>17.869961352657</v>
-      </c>
-      <c r="H4">
-        <v>0.4043960508401742</v>
-      </c>
-      <c r="I4">
-        <v>520.1</v>
-      </c>
-      <c r="J4">
-        <v>20.71095962732919</v>
-      </c>
-      <c r="K4">
-        <v>0.3034961520905039</v>
-      </c>
-      <c r="L4">
-        <v>519.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>-208.8257142857143</v>
-      </c>
-      <c r="E5">
-        <v>0.8158435619533495</v>
-      </c>
-      <c r="F5">
-        <v>607.1</v>
-      </c>
-      <c r="G5">
-        <v>-81.41714285714286</v>
-      </c>
-      <c r="H5">
-        <v>0.8030929048221166</v>
-      </c>
-      <c r="I5">
-        <v>413.4</v>
-      </c>
-      <c r="J5">
-        <v>-18.81428571428571</v>
-      </c>
-      <c r="K5">
-        <v>0.6909616913771125</v>
-      </c>
-      <c r="L5">
-        <v>364.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>-150.2285714285714</v>
-      </c>
-      <c r="E6">
-        <v>0.7780247108633616</v>
-      </c>
-      <c r="F6">
-        <v>627.7</v>
-      </c>
-      <c r="G6">
-        <v>-28.85840336134454</v>
-      </c>
-      <c r="H6">
-        <v>0.652434675736799</v>
-      </c>
-      <c r="I6">
-        <v>507.4</v>
-      </c>
-      <c r="J6">
-        <v>9.41021310797046</v>
-      </c>
-      <c r="K6">
-        <v>0.5372320788424032</v>
-      </c>
-      <c r="L6">
-        <v>448.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
       <c r="C7">
-        <v>200</v>
+        <v>-71.11</v>
       </c>
       <c r="D7">
-        <v>-91.64805852986355</v>
+        <v>0.66</v>
       </c>
       <c r="E7">
-        <v>0.7158661260735317</v>
+        <v>733.5</v>
       </c>
       <c r="F7">
-        <v>653.8</v>
+        <v>10.22</v>
       </c>
       <c r="G7">
-        <v>0.771658476195953</v>
+        <v>0.49</v>
       </c>
       <c r="H7">
-        <v>0.5506945241499394</v>
+        <v>636.6</v>
       </c>
       <c r="I7">
-        <v>552.1</v>
+        <v>21.69</v>
       </c>
       <c r="J7">
-        <v>19.08302656756965</v>
+        <v>0.38</v>
       </c>
       <c r="K7">
-        <v>0.4246846827563182</v>
-      </c>
-      <c r="L7">
-        <v>537.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>-325.8044444444445</v>
-      </c>
-      <c r="E8">
-        <v>0.8263499600182669</v>
-      </c>
-      <c r="F8">
-        <v>786.8</v>
-      </c>
-      <c r="G8">
-        <v>-155.1688888888889</v>
-      </c>
-      <c r="H8">
-        <v>0.868930179100032</v>
-      </c>
-      <c r="I8">
-        <v>498.8</v>
-      </c>
-      <c r="J8">
-        <v>-73.40444444444444</v>
-      </c>
-      <c r="K8">
-        <v>0.8069717534839466</v>
-      </c>
-      <c r="L8">
-        <v>404.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>40</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>-240.4177777777778</v>
-      </c>
-      <c r="E9">
-        <v>0.8088743077431827</v>
-      </c>
-      <c r="F9">
-        <v>741.3</v>
-      </c>
-      <c r="G9">
-        <v>-86.64737373737374</v>
-      </c>
-      <c r="H9">
-        <v>0.7770487845358873</v>
-      </c>
-      <c r="I9">
-        <v>515</v>
-      </c>
-      <c r="J9">
-        <v>-19.94</v>
-      </c>
-      <c r="K9">
-        <v>0.6379098003726933</v>
-      </c>
-      <c r="L9">
-        <v>476.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>200</v>
-      </c>
-      <c r="D10">
-        <v>-167.9381818181818</v>
-      </c>
-      <c r="E10">
-        <v>0.7623827839137466</v>
-      </c>
-      <c r="F10">
-        <v>841.9</v>
-      </c>
-      <c r="G10">
-        <v>-26.79619118009362</v>
-      </c>
-      <c r="H10">
-        <v>0.6049269746822172</v>
-      </c>
-      <c r="I10">
-        <v>705.7</v>
-      </c>
-      <c r="J10">
-        <v>12.92776607538803</v>
-      </c>
-      <c r="K10">
-        <v>0.4536952310116628</v>
-      </c>
-      <c r="L10">
-        <v>705.7</v>
+        <v>625.5</v>
       </c>
     </row>
   </sheetData>
